--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-21.62126998203023</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.18790873426932</v>
+        <v>-14.18967619515296</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.495677299426841</v>
+        <v>-0.494197869205726</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.49415114892746</v>
+        <v>-10.49649467113613</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.90950500031255</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.39221412011446</v>
+        <v>-14.39379828875831</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4847452265539998</v>
+        <v>-0.4830694117902588</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.2459734562597</v>
+        <v>-10.24817296313712</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.09312680707397</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.71027852535135</v>
+        <v>-14.7120198016293</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4083385471696864</v>
+        <v>-0.4067936554343627</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.82504282759537</v>
+        <v>-9.827438719015406</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.28966605241155</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.17057770866076</v>
+        <v>-15.17248918487565</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3461632009743293</v>
+        <v>-0.3443957400906963</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.608980553798364</v>
+        <v>-9.611468091338292</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.52525311912641</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.61682885102099</v>
+        <v>-15.61888434256714</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3305309913813084</v>
+        <v>-0.3288420843147257</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.420150269912149</v>
+        <v>-9.422755638177653</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.83131368616715</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.09511685843493</v>
+        <v>-16.09748656524928</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3433876327718834</v>
+        <v>-0.3411881258944734</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.278779583827191</v>
+        <v>-9.281358767487012</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.23207811011716</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.60231267052339</v>
+        <v>-16.60494422339458</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1279799741169644</v>
+        <v>-0.1260030363878638</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.076372581894105</v>
+        <v>-9.078925580948242</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.74692062941059</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.22816402326643</v>
+        <v>-17.23116216061718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07516019677525727</v>
+        <v>0.07739898056119243</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.100344588397306</v>
+        <v>-9.10294995666281</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.35744576873763</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.65223680461277</v>
+        <v>-17.65543132650615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1969317055061514</v>
+        <v>0.1988824586295686</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.785147397482751</v>
+        <v>-8.78764802732552</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.0576341497086</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.18438654591757</v>
+        <v>-18.18782982156495</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3227880127236641</v>
+        <v>0.3247387658470813</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.709290594817791</v>
+        <v>-8.711895963083293</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.81555352012297</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.70678252160528</v>
+        <v>-18.71031744337255</v>
       </c>
       <c r="F12" t="n">
-        <v>0.407390473686898</v>
+        <v>0.4096030728671497</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.207855395979681</v>
+        <v>-8.210486948850869</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.57882312450114</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.4698412081296</v>
+        <v>-19.47354632983381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5453309764273239</v>
+        <v>0.5477006832416763</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.620796536556686</v>
+        <v>-7.623755396998916</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.31856339832521</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.2952061638777</v>
+        <v>-20.29892437788475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7881015480214503</v>
+        <v>0.7907331008926373</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.047772625780019</v>
+        <v>-7.051150439913184</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.99861733431073</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.09179423797968</v>
+        <v>-21.09560409810662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8699153484793966</v>
+        <v>0.872664732076159</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.504756273116588</v>
+        <v>-6.508487579426481</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.59577538997623</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.97909887847198</v>
+        <v>-21.98280400017619</v>
       </c>
       <c r="F16" t="n">
-        <v>1.116587426320357</v>
+        <v>1.119441548339854</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.003687658758048</v>
+        <v>-6.007144026708264</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.1182408590213</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.6177152264857</v>
+        <v>-22.62134179437285</v>
       </c>
       <c r="F17" t="n">
-        <v>1.294276160488264</v>
+        <v>1.297182651719127</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.883238472614169</v>
+        <v>-5.88681267128996</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.57109457279788</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.39965301370778</v>
+        <v>-23.40338432001768</v>
       </c>
       <c r="F18" t="n">
-        <v>1.620091209007458</v>
+        <v>1.623311915506523</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.485075358591596</v>
+        <v>-5.488649557267387</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.97254835554752</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.20041753241627</v>
+        <v>-24.20431903866311</v>
       </c>
       <c r="F19" t="n">
-        <v>1.87169908501975</v>
+        <v>1.874972160730182</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.230312237594448</v>
+        <v>-5.233716236333296</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.35292140145964</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.95211210007398</v>
+        <v>-24.95601360632081</v>
       </c>
       <c r="F20" t="n">
-        <v>2.09576075585305</v>
+        <v>2.099007646957798</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.997910769850968</v>
+        <v>-5.00172062997791</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.73158047932295</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.53153814694025</v>
+        <v>-25.53545274548992</v>
       </c>
       <c r="F21" t="n">
-        <v>2.449724255481956</v>
+        <v>2.452840223558287</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.740830311250835</v>
+        <v>-4.744391417623785</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.1432227482606</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.10846356396375</v>
+        <v>-26.11241743942195</v>
       </c>
       <c r="F22" t="n">
-        <v>2.736131472447556</v>
+        <v>2.738985594467052</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.458180585200811</v>
+        <v>-4.462213014476062</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.6211271038527</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.60724102532499</v>
+        <v>-26.61102470084625</v>
       </c>
       <c r="F23" t="n">
-        <v>2.932149430593878</v>
+        <v>2.934951183402008</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.303822334696861</v>
+        <v>-4.307697656338012</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.1817692392994</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.82331639142484</v>
+        <v>-26.82712625155178</v>
       </c>
       <c r="F24" t="n">
-        <v>3.059040029735887</v>
+        <v>3.0618679671497</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.125217139330034</v>
+        <v>-4.129144830182551</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.849910906461631</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.1263115560909</v>
+        <v>-27.13000358549227</v>
       </c>
       <c r="F25" t="n">
-        <v>3.366237823614147</v>
+        <v>3.369091945633644</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.869576834042491</v>
+        <v>-3.873373601866591</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.632666236674689</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.09390810655763</v>
+        <v>-27.09758704365616</v>
       </c>
       <c r="F26" t="n">
-        <v>3.448693146911339</v>
+        <v>3.451835299593353</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.8312687559276</v>
+        <v>-3.835209539082959</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.518902214072179</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.02209682547076</v>
+        <v>-27.02564483954087</v>
       </c>
       <c r="F27" t="n">
-        <v>3.457726835872129</v>
+        <v>3.460659511708676</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.769289794274869</v>
+        <v>-3.772811623739293</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.509542646018676</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.93711468772512</v>
+        <v>-26.9407805325208</v>
       </c>
       <c r="F28" t="n">
-        <v>3.518082351972486</v>
+        <v>3.520753181752199</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.764720580583107</v>
+        <v>-3.767967471687855</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.588094572593951</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.79010121911537</v>
+        <v>-26.79353140245991</v>
       </c>
       <c r="F29" t="n">
-        <v>3.528111055949249</v>
+        <v>3.530703331911911</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.688981608643721</v>
+        <v>-3.692071392114368</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.735806878174181</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.67338333928139</v>
+        <v>-26.67672187650603</v>
       </c>
       <c r="F30" t="n">
-        <v>3.498286790075797</v>
+        <v>3.500617219981624</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.648277639108795</v>
+        <v>-3.6513543302766</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.944265355560951</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.26774452033619</v>
+        <v>-26.27095213453241</v>
       </c>
       <c r="F31" t="n">
-        <v>3.391191752830478</v>
+        <v>3.393417444313571</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.832879109177132</v>
+        <v>-3.835628492773895</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.19152431408256</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.93404790550628</v>
+        <v>-25.93711150437124</v>
       </c>
       <c r="F32" t="n">
-        <v>3.341781401905803</v>
+        <v>3.343902354966163</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.922417368311697</v>
+        <v>-3.925140567302776</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.46599044538682</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.51505493766252</v>
+        <v>-25.51810544422464</v>
       </c>
       <c r="F33" t="n">
-        <v>3.220913262070988</v>
+        <v>3.222981845919981</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.064089177362015</v>
+        <v>-4.06610539199964</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.7618623968075</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.05784553782376</v>
+        <v>-25.06079130596315</v>
       </c>
       <c r="F34" t="n">
-        <v>3.138379384956747</v>
+        <v>3.140264676565956</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.979421254884572</v>
+        <v>-3.981123254253997</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.0626937677877</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.70050422406169</v>
+        <v>-24.70329288456697</v>
       </c>
       <c r="F35" t="n">
-        <v>2.885069509575031</v>
+        <v>2.887007170395607</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.074130973641618</v>
+        <v>-4.075531850045683</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.37034240747143</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.00618012745643</v>
+        <v>-24.00898188026456</v>
       </c>
       <c r="F36" t="n">
-        <v>2.760509340338849</v>
+        <v>2.762132785891223</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.388333149540203</v>
+        <v>-4.389576918310166</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.6845453328232</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.57396393374253</v>
+        <v>-23.57659548661371</v>
       </c>
       <c r="F37" t="n">
-        <v>2.606543858920151</v>
+        <v>2.608245858289575</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.462278475990272</v>
+        <v>-4.463247306400559</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.99739946087807</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.19831958060772</v>
+        <v>-23.20082021045049</v>
       </c>
       <c r="F38" t="n">
-        <v>2.548335480485837</v>
+        <v>2.549985110643894</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.570499451279979</v>
+        <v>-4.571586112415842</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-12.31793053629785</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.72080401906145</v>
+        <v>-22.72323918739001</v>
       </c>
       <c r="F39" t="n">
-        <v>2.508875279720874</v>
+        <v>2.510551094484615</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.501214984641565</v>
+        <v>-4.502105261234802</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.64440800346777</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.36063476788556</v>
+        <v>-22.36299138239707</v>
       </c>
       <c r="F40" t="n">
-        <v>2.496359038204184</v>
+        <v>2.498401437447494</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.552288058027138</v>
+        <v>-4.552955765472066</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.96924307476167</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.84457546677325</v>
+        <v>-21.84687971207339</v>
       </c>
       <c r="F41" t="n">
-        <v>2.577924084908138</v>
+        <v>2.579757007305979</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.483422545079659</v>
+        <v>-4.484077160221745</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-13.29773070220097</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.22451091188626</v>
+        <v>-21.22663186494662</v>
       </c>
       <c r="F42" t="n">
-        <v>2.702196223481801</v>
+        <v>2.703924407456909</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.495271079151421</v>
+        <v>-4.495978063504874</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-13.61979173732257</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57240949194556</v>
+        <v>-20.5744911680974</v>
       </c>
       <c r="F43" t="n">
-        <v>2.813271320791006</v>
+        <v>2.815025689371797</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.491251742179011</v>
+        <v>-4.492115834166565</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-13.92482253578174</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.31744998640579</v>
+        <v>-20.31941383183205</v>
       </c>
       <c r="F44" t="n">
-        <v>2.761818570623022</v>
+        <v>2.763415831569712</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.57361541935631</v>
+        <v>-4.574387865223971</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-14.21188260420504</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.87728676486696</v>
+        <v>-19.87909350265912</v>
       </c>
       <c r="F45" t="n">
-        <v>2.840896079787048</v>
+        <v>2.842676632973522</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.555731333674512</v>
+        <v>-4.556385948816598</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-14.4669311227856</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.52573224896093</v>
+        <v>-19.52761754057014</v>
       </c>
       <c r="F46" t="n">
-        <v>2.881744064653233</v>
+        <v>2.883472248628341</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.654028343410191</v>
+        <v>-4.654250912558501</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-14.68474977941131</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.04178836671937</v>
+        <v>-19.04347727378595</v>
       </c>
       <c r="F47" t="n">
-        <v>2.913217960684742</v>
+        <v>2.9148675908428</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.964067167005107</v>
+        <v>-4.964158813124999</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-14.86512433648568</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.58505028978292</v>
+        <v>-18.58667373533529</v>
       </c>
       <c r="F48" t="n">
-        <v>2.877685450772298</v>
+        <v>2.879204157901938</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.090028212645353</v>
+        <v>-5.09008058185672</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-14.99535494658061</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.11807403202423</v>
+        <v>-18.11995932363344</v>
       </c>
       <c r="F49" t="n">
-        <v>2.906174301755894</v>
+        <v>2.90766682427985</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.344045072380522</v>
+        <v>-5.344228364620307</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-15.07875573658598</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.62969185911932</v>
+        <v>-17.63149859691148</v>
       </c>
       <c r="F50" t="n">
-        <v>2.961607111987762</v>
+        <v>2.963387665174237</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.428202395047137</v>
+        <v>-5.427809625961886</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-15.11784840086212</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.94056540674223</v>
+        <v>-16.94245069835144</v>
       </c>
       <c r="F51" t="n">
-        <v>2.940764165863734</v>
+        <v>2.942675642078626</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.644958560894754</v>
+        <v>-5.644539607203819</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-15.10539991153969</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.56408314622555</v>
+        <v>-16.56591606862339</v>
       </c>
       <c r="F52" t="n">
-        <v>2.819712733789135</v>
+        <v>2.821440917764242</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.794773782312626</v>
+        <v>-5.794839243826834</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-15.05387266426668</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.14181710267136</v>
+        <v>-16.14375476349194</v>
       </c>
       <c r="F53" t="n">
-        <v>2.886980985789923</v>
+        <v>2.888630615947981</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852484653238954</v>
+        <v>-5.85245846863327</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-14.96958357583937</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.8693531882322</v>
+        <v>-15.87155269510961</v>
       </c>
       <c r="F54" t="n">
-        <v>2.643307045299718</v>
+        <v>2.644878121640725</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.084663551834124</v>
+        <v>-6.084454074988656</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-14.85224941324692</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.53373200488455</v>
+        <v>-15.53608861939606</v>
       </c>
       <c r="F55" t="n">
-        <v>2.482324089557854</v>
+        <v>2.483947535110228</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.295920950488216</v>
+        <v>-6.295475812191597</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.72163213039457</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.13007012366846</v>
+        <v>-15.1326885842368</v>
       </c>
       <c r="F56" t="n">
-        <v>2.427441156045338</v>
+        <v>2.429064601597712</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.497162737468387</v>
+        <v>-6.497084183651337</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.58611056555345</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.58967223157337</v>
+        <v>-14.59226450753603</v>
       </c>
       <c r="F57" t="n">
-        <v>2.386540801967786</v>
+        <v>2.388399908971311</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.76380057714298</v>
+        <v>-6.763695838720246</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.45210805428386</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.34150763120845</v>
+        <v>-14.34424392250237</v>
       </c>
       <c r="F58" t="n">
-        <v>2.209061544645347</v>
+        <v>2.210999205465923</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721329146724421</v>
+        <v>-6.721276777513054</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.34067394428927</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.96691066230099</v>
+        <v>-13.96976478432048</v>
       </c>
       <c r="F59" t="n">
-        <v>2.262373401816856</v>
+        <v>2.264572908694266</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.857331988644272</v>
+        <v>-6.857201065615854</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.25468071942102</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.85631998019693</v>
+        <v>-13.85935739445621</v>
       </c>
       <c r="F60" t="n">
-        <v>2.08172580720672</v>
+        <v>2.08392531408413</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821459078857942</v>
+        <v>-6.821472171160783</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.20033851133482</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.52736277899572</v>
+        <v>-13.53034782404363</v>
       </c>
       <c r="F61" t="n">
-        <v>1.960333975258236</v>
+        <v>1.962559666741329</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.154213047883252</v>
+        <v>-7.154474893940086</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.18849718182629</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.22949979704361</v>
+        <v>-13.23279905735972</v>
       </c>
       <c r="F62" t="n">
-        <v>1.882487142561332</v>
+        <v>1.88481757246716</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192324741455517</v>
+        <v>-7.192272372244149</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.20932865539991</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.90241479514876</v>
+        <v>-12.90572714776772</v>
       </c>
       <c r="F63" t="n">
-        <v>1.813935844882055</v>
+        <v>1.816240090182198</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.315575680407526</v>
+        <v>-7.315798249555835</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.26273395004566</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.66067851547914</v>
+        <v>-12.66418725264072</v>
       </c>
       <c r="F64" t="n">
-        <v>1.699090164354434</v>
+        <v>1.701472963471628</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.493919029717518</v>
+        <v>-7.493578629843634</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.34476176873259</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.44951276294494</v>
+        <v>-12.45310005392357</v>
       </c>
       <c r="F65" t="n">
-        <v>1.616818133297027</v>
+        <v>1.618677240300552</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730784972730026</v>
+        <v>-7.730824249638551</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.43556006388009</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.21415243475923</v>
+        <v>-12.21780518725207</v>
       </c>
       <c r="F66" t="n">
-        <v>1.547926435743864</v>
+        <v>1.549785542747389</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.849191759630597</v>
+        <v>-7.848969190482287</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.53522959572628</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.03385833232582</v>
+        <v>-12.03753726942434</v>
       </c>
       <c r="F67" t="n">
-        <v>1.605951521938394</v>
+        <v>1.608543797901056</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.817796417416138</v>
+        <v>-7.817953525050238</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.63663993687237</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.94481758069924</v>
+        <v>-11.94864053312902</v>
       </c>
       <c r="F68" t="n">
-        <v>1.46240751358171</v>
+        <v>1.464502282036386</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.826843198679771</v>
+        <v>-7.826633721834303</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.72641888333504</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.79628540495986</v>
+        <v>-11.80014763429817</v>
       </c>
       <c r="F69" t="n">
-        <v>1.356700260437613</v>
+        <v>1.359371090217325</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.899440017937141</v>
+        <v>-7.899217448788832</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.81322098307526</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.69861682576058</v>
+        <v>-11.70272780885288</v>
       </c>
       <c r="F70" t="n">
-        <v>1.402078182087036</v>
+        <v>1.404565719626964</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.839909316915813</v>
+        <v>-7.839582009344769</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.89493898546566</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.42968783308868</v>
+        <v>-11.43366789315257</v>
       </c>
       <c r="F71" t="n">
-        <v>1.34127752769006</v>
+        <v>1.343817434441355</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.690369033857618</v>
+        <v>-7.689557311081431</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.96798352284826</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.37316836172095</v>
+        <v>-11.37710914487631</v>
       </c>
       <c r="F72" t="n">
-        <v>1.391499601390921</v>
+        <v>1.393908585113799</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.69547503196589</v>
+        <v>-7.694859693732329</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.0441905399995</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.3357505601993</v>
+        <v>-11.33874869755005</v>
       </c>
       <c r="F73" t="n">
-        <v>1.364896042016534</v>
+        <v>1.367305025739411</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.573572600206579</v>
+        <v>-7.572472846767875</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.11730835850346</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.53153285689447</v>
+        <v>-11.53454408654807</v>
       </c>
       <c r="F74" t="n">
-        <v>1.411111871047827</v>
+        <v>1.413468485559338</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.461803610846764</v>
+        <v>-7.460913334253527</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.18376211790652</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.66029565534285</v>
+        <v>-11.66331997729928</v>
       </c>
       <c r="F75" t="n">
-        <v>1.342979527059485</v>
+        <v>1.345309956965312</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.333734704448999</v>
+        <v>-7.333040812398388</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.24614961511625</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99484326985747</v>
+        <v>-11.99760574575708</v>
       </c>
       <c r="F76" t="n">
-        <v>1.367095548893944</v>
+        <v>1.369295055771354</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.132388179046094</v>
+        <v>-7.131183687184656</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.2903098160997</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.60600505881209</v>
+        <v>-12.60864970398612</v>
       </c>
       <c r="F77" t="n">
-        <v>1.341722665986679</v>
+        <v>1.343974542075456</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.96548750241977</v>
+        <v>-6.964662687340741</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-15.31524843127473</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.13425329387005</v>
+        <v>-13.13676701601566</v>
       </c>
       <c r="F78" t="n">
-        <v>1.37055191684416</v>
+        <v>1.37290853135567</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.834381181762725</v>
+        <v>-6.834053874191683</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-15.32133155336199</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.62950892576686</v>
+        <v>-13.63199646330679</v>
       </c>
       <c r="F79" t="n">
-        <v>1.429676756477395</v>
+        <v>1.431981001777538</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662138845576977</v>
+        <v>-6.662073384062769</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-15.29534175046492</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.18731958064144</v>
+        <v>-14.18978093357569</v>
       </c>
       <c r="F80" t="n">
-        <v>1.412892424234302</v>
+        <v>1.414856269660561</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.392123191769219</v>
+        <v>-6.391795884198176</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-15.24340420904695</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.97119502868411</v>
+        <v>-14.97361710470983</v>
       </c>
       <c r="F81" t="n">
-        <v>1.476704308284875</v>
+        <v>1.478799076739551</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278756941462713</v>
+        <v>-6.278612926131454</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.16514617118147</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.72444758037998</v>
+        <v>-15.72677801028581</v>
       </c>
       <c r="F82" t="n">
-        <v>1.507680696808398</v>
+        <v>1.509565988417607</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.193107096272141</v>
+        <v>-6.192910711729515</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.05150564462769</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.59346227380239</v>
+        <v>-16.5958188883139</v>
       </c>
       <c r="F83" t="n">
-        <v>1.464842681910271</v>
+        <v>1.46680652733653</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.931837100762656</v>
+        <v>-5.931522885494454</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.91309413973955</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.66349618505666</v>
+        <v>-17.66581352265964</v>
       </c>
       <c r="F84" t="n">
-        <v>1.546355359402857</v>
+        <v>1.548083543377965</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746711938580649</v>
+        <v>-5.746646477066441</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.75119352472611</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.47504876130673</v>
+        <v>-18.47731372969835</v>
       </c>
       <c r="F85" t="n">
-        <v>1.539233146656958</v>
+        <v>1.5410660690548</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.541895952924686</v>
+        <v>-5.542066152861629</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.56255721859761</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.56487823445769</v>
+        <v>-19.56735267969478</v>
       </c>
       <c r="F86" t="n">
-        <v>1.534572286845304</v>
+        <v>1.536379024637462</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243181971287864</v>
+        <v>-5.24322124819639</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.36144206297235</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.62449067264995</v>
+        <v>-20.62697821018988</v>
       </c>
       <c r="F87" t="n">
-        <v>1.549916465775807</v>
+        <v>1.551068588425879</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.967746104103631</v>
+        <v>-4.967484258046797</v>
       </c>
     </row>
     <row r="88">
@@ -2457,10 +2457,10 @@
         <v>-14.14751173873597</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.9860377989781</v>
+        <v>-21.98844678270097</v>
       </c>
       <c r="F88" t="n">
-        <v>1.603647276638251</v>
+        <v>1.604956506922423</v>
       </c>
       <c r="G88" t="n">
         <v>-4.659998433506019</v>
@@ -2480,13 +2480,13 @@
         <v>-13.92149116522419</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.44952159523192</v>
+        <v>-23.45165564059512</v>
       </c>
       <c r="F89" t="n">
-        <v>1.399852490603943</v>
+        <v>1.401397382339266</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318629729210853</v>
+        <v>-4.318485713879594</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.69329923137322</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.93742253628556</v>
+        <v>-24.9395042124374</v>
       </c>
       <c r="F90" t="n">
-        <v>1.24858402357064</v>
+        <v>1.249893253854812</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.128411661223415</v>
+        <v>-4.128542584251832</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.45758820136554</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.59101966210409</v>
+        <v>-26.59304896904456</v>
       </c>
       <c r="F91" t="n">
-        <v>1.081971377606834</v>
+        <v>1.083162777165431</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087000707335036</v>
+        <v>-4.086909061215144</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.21569259837723</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28782138730031</v>
+        <v>-28.28949720206406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9957716556969092</v>
+        <v>0.996832132227089</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.84014533725429</v>
+        <v>-3.839975137317348</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.97045378849441</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.17933184035869</v>
+        <v>-30.18087673209401</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8721148553568066</v>
+        <v>0.8731229626756194</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.879972122498821</v>
+        <v>-3.879631722624936</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.70871152495819</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.31818207870295</v>
+        <v>-32.31950440128996</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7799843202595802</v>
+        <v>0.7809138737613427</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.915714109256733</v>
+        <v>-3.915229694051589</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.43183562376436</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.40768742763674</v>
+        <v>-34.40880027337829</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3691740416918996</v>
+        <v>0.3701166874965039</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.918830077333064</v>
+        <v>-3.918280200613712</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.13527152572443</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.4241639113194</v>
+        <v>-36.42511964942684</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09101497551658755</v>
+        <v>0.09216709816665944</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.096885395980538</v>
+        <v>-4.096466442289604</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.81132583980458</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.55645490593995</v>
+        <v>-38.55726662871614</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2383219024670317</v>
+        <v>-0.237353072056744</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.179602565334564</v>
+        <v>-4.178882488678269</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.46278125498898</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89646837744733</v>
+        <v>-40.89686114653259</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4992645904054739</v>
+        <v>-0.4981124677554021</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.385911073514484</v>
+        <v>-4.385177904555347</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.10294446566769</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31872769540644</v>
+        <v>-43.31897644916044</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4160760981491465</v>
+        <v>-0.4149501601047581</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.705834585754902</v>
+        <v>-4.705127601401448</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.71872503896655</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79956197627943</v>
+        <v>-45.79954888397659</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.565838950355651</v>
+        <v>-0.5651188736993561</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.947858896087049</v>
+        <v>-4.946942434888129</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.34996630403204</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.2024185014271</v>
+        <v>-48.20239231682142</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5885017265746788</v>
+        <v>-0.5874805269530242</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.302071149469948</v>
+        <v>-5.300892842214193</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.96334051401554</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49103159197787</v>
+        <v>-50.49074356131535</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7134546648961124</v>
+        <v>-0.7125120190915082</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.622688553760978</v>
+        <v>-5.62164116953364</v>
       </c>
     </row>
   </sheetData>
